--- a/2016-03-21_data/props.xlsx
+++ b/2016-03-21_data/props.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24709"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="14920" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="0" windowWidth="25040" windowHeight="14920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="props.csv" sheetId="1" r:id="rId1"/>
@@ -639,10 +639,20 @@
   <dimension ref="A1:Z55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" customWidth="1"/>
+    <col min="10" max="10" width="18.5" customWidth="1"/>
+    <col min="14" max="14" width="14.5" customWidth="1"/>
+    <col min="15" max="15" width="16.33203125" customWidth="1"/>
+    <col min="19" max="19" width="20.33203125" customWidth="1"/>
+    <col min="25" max="25" width="15.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:26">
       <c r="A1" t="s">
